--- a/01.設計/cms/データ設計.xlsx
+++ b/01.設計/cms/データ設計.xlsx
@@ -12,6 +12,7 @@
     <sheet name="NoSQL テーブル設計" sheetId="7" r:id="rId3"/>
     <sheet name="NoSQL インデックス一覧" sheetId="8" r:id="rId4"/>
     <sheet name="コード一覧" sheetId="10" r:id="rId5"/>
+    <sheet name="添付" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="205">
   <si>
     <t>概要説明</t>
     <rPh sb="0" eb="4">
@@ -1067,6 +1068,26 @@
     <t>店舗</t>
     <rPh sb="0" eb="2">
       <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■ アルバムオブジェクトの状態遷移</t>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>■ コンテンツオブジェクトの状態遷移</t>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1178,8 +1199,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1368,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="123">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -1429,6 +1452,7 @@
     <cellStyle name="ハイパーリンク" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -1490,6 +1514,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="122" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2186,6 +2211,3471 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406399</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1041400" y="685800"/>
+          <a:ext cx="2298699" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アルバム新規作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596899</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8420099" y="533400"/>
+          <a:ext cx="2311401" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「無効」へ状態更新</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>473603</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>574703</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5363103" y="1071563"/>
+          <a:ext cx="3034800" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>② </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アルバムオブジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータス：アクティブ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146049</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247149</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123949" y="1076326"/>
+          <a:ext cx="3034800" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>① </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アルバムオブジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータス：作成中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4178299" y="711200"/>
+          <a:ext cx="1384301" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>バッチ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>801158</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>902258</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9602258" y="1076326"/>
+          <a:ext cx="3034800" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>③ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アルバムオブジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータス：無効</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>574703</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>801158</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Elbow Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="19" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8397903" y="1490663"/>
+          <a:ext cx="1204355" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247149</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>473603</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Elbow Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="17" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4158749" y="1490663"/>
+          <a:ext cx="1204354" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>939801</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8407400" y="774700"/>
+          <a:ext cx="2311401" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>有効期限切れ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="4343400"/>
+          <a:ext cx="2298699" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コンテンツ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>新規</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8432799" y="4381500"/>
+          <a:ext cx="2311401" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>削除中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>」へ状態更新</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>475191</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576291</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364691" y="4714875"/>
+          <a:ext cx="3034800" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>② </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コンテンツオブジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータス：アクティブ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146049</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247149</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123949" y="4719638"/>
+          <a:ext cx="3034800" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>① </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コンテンツ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>オブジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータス：作成中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4165599" y="4368800"/>
+          <a:ext cx="1384301" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>バッチ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>801158</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>902258</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9602258" y="4719638"/>
+          <a:ext cx="3034800" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>③ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コンテンツオブジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータス：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>削除中</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576291</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>801158</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Elbow Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8399491" y="5133975"/>
+          <a:ext cx="1202767" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>475191</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Elbow Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4158749" y="5133975"/>
+          <a:ext cx="1205942" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>149224</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250324</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13839824" y="4719638"/>
+          <a:ext cx="3034800" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>コンテンツ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>オブジェクト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ステータス：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="none">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>902258</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>149224</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Elbow Connector 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="25" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12637058" y="5133976"/>
+          <a:ext cx="1202766" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12699</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725399" y="4368800"/>
+          <a:ext cx="1384301" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トリガー </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>バッチ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4239,4 +7729,35 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/01.設計/cms/データ設計.xlsx
+++ b/01.設計/cms/データ設計.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/3. work/msar/msar_Documents/01.設計/cms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE278D62-AE24-7A4A-844F-011EF3655779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970A9F9-FF5D-F946-9C35-28DA46ACC129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="460" windowWidth="25060" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="15540" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ER図" sheetId="6" r:id="rId2"/>
     <sheet name="NoSQL テーブル設計" sheetId="7" r:id="rId3"/>
     <sheet name="NoSQL インデックス一覧" sheetId="8" r:id="rId4"/>
-    <sheet name="コード一覧" sheetId="10" r:id="rId5"/>
+    <sheet name="コード一覧 (都道府県)" sheetId="10" r:id="rId5"/>
+    <sheet name="コード一覧 (アルバム、コンテンツ作成)" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="199">
   <si>
     <t>概要説明</t>
     <rPh sb="0" eb="4">
@@ -276,14 +277,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>anchor_image</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rating</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>views</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -407,16 +400,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マーカー判定結果画像のURL</t>
-    <rPh sb="4" eb="8">
-      <t>ハンテイケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ARで再生するコンテンツ</t>
     <rPh sb="3" eb="5">
       <t>サイセイ</t>
@@ -424,16 +407,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マーカー判定強度のレート</t>
-    <rPh sb="4" eb="6">
-      <t>ハンテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョウド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>country-albumid-index</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1033,6 +1006,42 @@
       <t>テンポ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>updatename</t>
+  </si>
+  <si>
+    <t>動画変換中</t>
+  </si>
+  <si>
+    <t>アルバムxml, datファイル作成中</t>
+  </si>
+  <si>
+    <t>アルバム作成済み</t>
+  </si>
+  <si>
+    <t>アルバム削除中</t>
+  </si>
+  <si>
+    <t>アルバム削除済み</t>
+  </si>
+  <si>
+    <t>動画変換済み</t>
+  </si>
+  <si>
+    <t>動画変換失敗 1回目</t>
+  </si>
+  <si>
+    <t>動画変換失敗 2回目</t>
+  </si>
+  <si>
+    <t>動画変換失敗 通知済み</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1276,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1333,6 +1342,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2162,7 +2172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2181,7 +2191,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -2225,12 +2235,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -2305,7 +2315,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2336,7 +2346,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
@@ -2351,7 +2361,7 @@
         <v>17</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2449,7 +2459,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
@@ -2464,7 +2474,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2480,10 +2490,10 @@
         <v>25</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>26</v>
@@ -2492,7 +2502,7 @@
         <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2509,7 +2519,7 @@
         <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2517,7 +2527,7 @@
         <v>31</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>27</v>
@@ -2533,13 +2543,13 @@
         <v>40</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2561,7 +2571,7 @@
         <v>26</v>
       </c>
       <c r="L20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2578,7 +2588,7 @@
         <v>26</v>
       </c>
       <c r="L21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2586,7 +2596,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>26</v>
@@ -2594,57 +2604,53 @@
       <c r="K22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L22" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="L23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="10" t="s">
@@ -2656,10 +2662,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
         <v>25</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="10" t="s">
@@ -2671,11 +2680,12 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="F29" t="s">
         <v>25</v>
       </c>
+      <c r="H29" s="20"/>
       <c r="I29" s="17"/>
       <c r="J29" s="10" t="s">
         <v>26</v>
@@ -2685,38 +2695,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2753,31 +2745,31 @@
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2785,19 +2777,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -2814,19 +2806,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -2843,19 +2835,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -2908,18 +2900,18 @@
         <v>23</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E2" s="27" t="str">
         <f>"{"""&amp;A$1&amp;""":"""&amp;A2&amp;""","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;"""}"</f>
@@ -2928,13 +2920,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E3" s="27" t="str">
         <f t="shared" ref="E3:E50" si="0">"{"""&amp;A$1&amp;""":"""&amp;A3&amp;""","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"""&amp;C3&amp;"""}"</f>
@@ -2943,13 +2935,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>89</v>
-      </c>
       <c r="C4" s="26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E4" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2958,13 +2950,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E5" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2973,13 +2965,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E6" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2988,13 +2980,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E7" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3003,13 +2995,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3018,13 +3010,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E9" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3033,13 +3025,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E10" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3048,13 +3040,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E11" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3063,13 +3055,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E12" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3078,13 +3070,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E13" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3093,13 +3085,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3108,13 +3100,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E15" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3123,13 +3115,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E16" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3138,13 +3130,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E17" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3153,13 +3145,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E18" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3168,13 +3160,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E19" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3183,13 +3175,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E20" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3198,13 +3190,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E21" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3213,13 +3205,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E22" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3228,13 +3220,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E23" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3243,13 +3235,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E24" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3258,13 +3250,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E25" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3273,13 +3265,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E26" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3288,13 +3280,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E27" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3303,13 +3295,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E28" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3318,13 +3310,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E29" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3333,13 +3325,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E30" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3348,13 +3340,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E31" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3363,13 +3355,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E32" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3378,13 +3370,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E33" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3393,13 +3385,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>156</v>
-      </c>
       <c r="C34" s="26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E34" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3408,13 +3400,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E35" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3423,13 +3415,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E36" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3438,13 +3430,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E37" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3453,13 +3445,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E38" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3468,13 +3460,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E39" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3483,13 +3475,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E40" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3498,13 +3490,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E41" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3513,13 +3505,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E42" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3528,13 +3520,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E43" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3543,13 +3535,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E44" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3558,13 +3550,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E45" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3573,13 +3565,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E46" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3588,13 +3580,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E47" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3603,13 +3595,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E48" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3618,13 +3610,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E49" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3633,13 +3625,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E50" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3656,4 +3648,76 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723CD1B9-8EB4-904E-B8E4-9520A824F581}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01.設計/cms/データ設計.xlsx
+++ b/01.設計/cms/データ設計.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/3. work/msar/msar_Documents/01.設計/cms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970A9F9-FF5D-F946-9C35-28DA46ACC129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53258FF5-84AF-E44E-A986-2CE723907B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="25060" windowHeight="15540" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ER図" sheetId="6" r:id="rId2"/>
-    <sheet name="NoSQL テーブル設計" sheetId="7" r:id="rId3"/>
-    <sheet name="NoSQL インデックス一覧" sheetId="8" r:id="rId4"/>
-    <sheet name="コード一覧 (都道府県)" sheetId="10" r:id="rId5"/>
-    <sheet name="コード一覧 (アルバム、コンテンツ作成)" sheetId="11" r:id="rId6"/>
+    <sheet name="DynamoDB テーブル設計" sheetId="7" r:id="rId3"/>
+    <sheet name="DynamoDB インデックス一覧" sheetId="8" r:id="rId4"/>
+    <sheet name="RDS テーブル設計" sheetId="12" r:id="rId5"/>
+    <sheet name="コード一覧 (都道府県)" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="204">
   <si>
     <t>概要説明</t>
     <rPh sb="0" eb="4">
@@ -48,20 +48,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>■ ER図</t>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>T 002</t>
-  </si>
-  <si>
-    <t>M 001</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>msarcity</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -73,15 +59,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>T 001</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>msaralbum</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>msarmarker</t>
   </si>
   <si>
     <t>アルバムの基本情報と、アルバムに関連づくコンテンツ情報を格納するテーブル。</t>
@@ -113,20 +92,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>マーカー情報を格納するテーブル。</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NoSQL DB (ドキュメントタイプ)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>項目名</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -1011,37 +976,73 @@
     <t>updatename</t>
   </si>
   <si>
-    <t>動画変換中</t>
-  </si>
-  <si>
-    <t>アルバムxml, datファイル作成中</t>
-  </si>
-  <si>
-    <t>アルバム作成済み</t>
-  </si>
-  <si>
-    <t>アルバム削除中</t>
-  </si>
-  <si>
-    <t>アルバム削除済み</t>
-  </si>
-  <si>
-    <t>動画変換済み</t>
-  </si>
-  <si>
-    <t>動画変換失敗 1回目</t>
-  </si>
-  <si>
-    <t>動画変換失敗 2回目</t>
-  </si>
-  <si>
-    <t>動画変換失敗 通知済み</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>DynamoDB M 001</t>
+  </si>
+  <si>
+    <t>DynamoDB T 001</t>
+  </si>
+  <si>
+    <t>RDS T 001</t>
+  </si>
+  <si>
+    <t>records</t>
+  </si>
+  <si>
+    <t>日付ごとに、動画の再生回数を記録するテーブル。</t>
+  </si>
+  <si>
+    <t>T 001   records</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>アルバムID</t>
+  </si>
+  <si>
+    <t>コンテンツ番号</t>
+  </si>
+  <si>
+    <t>再生回数</t>
+  </si>
+  <si>
+    <t>LONGINT</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>AUTO INCREMENT</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>■ ER図 DynamoDB</t>
+  </si>
+  <si>
+    <t>■ ER図 RDS</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1277,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1342,7 +1343,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1486,16 +1486,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1510,8 +1510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6070600" y="1257300"/>
-          <a:ext cx="3911600" cy="914400"/>
+          <a:off x="1270000" y="2311400"/>
+          <a:ext cx="3911600" cy="812800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1571,6 +1571,11 @@
             </a:rPr>
             <a:t>Primary sort key: code (String)</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1646,7 +1651,7 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>T 001   msaralbum</a:t>
+            <a:t>DynamoDB T 001   msaralbum</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -1660,16 +1665,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>79830</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>58058</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19958</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1684,8 +1689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6070600" y="994230"/>
-          <a:ext cx="1955800" cy="206828"/>
+          <a:off x="1270000" y="2073730"/>
+          <a:ext cx="1955800" cy="181428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1722,6 +1727,22 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dynamo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB </a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -1811,6 +1832,170 @@
               </a:solidFill>
             </a:rPr>
             <a:t>Primary partition key: albumid (String)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF07F968-A05A-2844-859A-210C21BA040A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231900" y="4902200"/>
+          <a:ext cx="1955800" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DynamoDB T 001   msaralbum</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4649843-F009-5B40-97A1-8CC8398B060E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1231900" y="5156200"/>
+          <a:ext cx="3911600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Primary key: id (Long Integer)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -2172,13 +2357,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="77.6640625" style="3" customWidth="1"/>
     <col min="4" max="16384" width="12.83203125" style="3"/>
@@ -2186,15 +2371,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -2202,57 +2387,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>6</v>
+        <v>182</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
@@ -2273,7 +2458,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:L2"/>
+  <dimension ref="B2:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2287,7 +2472,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2299,6 +2484,21 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2317,7 +2517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2331,104 +2533,104 @@
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2444,259 +2646,259 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" s="14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="17"/>
       <c r="J29" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2740,36 +2942,36 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2777,19 +2979,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -2806,19 +3008,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="D5" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -2835,19 +3037,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -2872,12 +3074,151 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9A5824-2BED-7F40-9D2E-2CC56F1C45B1}">
+  <dimension ref="A2:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125"/>
+    <col min="9" max="9" width="54.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="G5" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="G7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2891,27 +3232,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E2" s="27" t="str">
         <f>"{"""&amp;A$1&amp;""":"""&amp;A2&amp;""","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;"""}"</f>
@@ -2920,13 +3261,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E3" s="27" t="str">
         <f t="shared" ref="E3:E50" si="0">"{"""&amp;A$1&amp;""":"""&amp;A3&amp;""","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"""&amp;C3&amp;"""}"</f>
@@ -2935,13 +3276,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E4" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2950,13 +3291,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E5" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2965,13 +3306,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E6" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2980,13 +3321,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E7" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2995,13 +3336,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>95</v>
       </c>
       <c r="E8" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3010,13 +3351,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E9" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3025,13 +3366,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E10" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3040,13 +3381,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E11" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3055,13 +3396,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E12" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3070,13 +3411,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E13" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3085,13 +3426,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3100,13 +3441,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E15" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3115,13 +3456,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E16" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3130,13 +3471,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E17" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3145,13 +3486,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E18" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3160,13 +3501,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E19" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3175,13 +3516,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E20" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3190,13 +3531,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E21" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3205,13 +3546,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E22" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3220,13 +3561,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E23" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3235,13 +3576,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E24" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3250,13 +3591,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E25" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3265,13 +3606,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E26" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3280,13 +3621,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E27" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3295,13 +3636,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E28" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3310,13 +3651,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E29" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3325,13 +3666,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E30" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3340,13 +3681,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E31" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3355,13 +3696,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E32" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3370,13 +3711,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E33" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3385,13 +3726,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E34" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3400,13 +3741,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E35" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3415,13 +3756,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E36" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3430,13 +3771,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E37" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3445,13 +3786,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E38" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3460,13 +3801,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E39" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3475,13 +3816,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E40" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3490,13 +3831,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E41" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3505,13 +3846,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E42" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3520,13 +3861,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E43" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3535,13 +3876,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E44" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3550,13 +3891,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E45" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3565,13 +3906,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E46" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3580,13 +3921,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E47" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3595,13 +3936,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E48" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3610,13 +3951,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E49" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3625,13 +3966,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E50" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3648,76 +3989,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723CD1B9-8EB4-904E-B8E4-9520A824F581}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/01.設計/cms/データ設計.xlsx
+++ b/01.設計/cms/データ設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/3. work/msar/msar_Documents/01.設計/cms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53258FF5-84AF-E44E-A986-2CE723907B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC440BAF-18BB-6742-933B-2997B99872CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26420" yWindow="460" windowWidth="25020" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="216">
   <si>
     <t>概要説明</t>
     <rPh sb="0" eb="4">
@@ -206,10 +206,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>countory</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>enable</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -239,10 +235,6 @@
   </si>
   <si>
     <t>video</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>views</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -256,13 +248,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>整数値</t>
-    <rPh sb="0" eb="3">
-      <t>セイスウチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Map</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -351,27 +336,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アルバムに追加したコンテンツ</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>マーカー画像のURL</t>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ARで再生するコンテンツ</t>
-    <rPh sb="3" eb="5">
-      <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>country-albumid-index</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -997,12 +961,6 @@
     <t>PK</t>
   </si>
   <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>アルバムID</t>
   </si>
   <si>
@@ -1012,24 +970,12 @@
     <t>再生回数</t>
   </si>
   <si>
-    <t>LONGINT</t>
-  </si>
-  <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
-    <t>AUTO INCREMENT</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>NOT NULL</t>
   </si>
   <si>
@@ -1043,6 +989,78 @@
   </si>
   <si>
     <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>アルバムの有効/無効</t>
+  </si>
+  <si>
+    <t>アルバムの有効期限</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>最終更新日時</t>
+  </si>
+  <si>
+    <t>最終更新者</t>
+  </si>
+  <si>
+    <t>アルバムに追加したコンテンツ番号</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>コンテンツの説明</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>int unsigned</t>
+  </si>
+  <si>
+    <t>smallint unsigned</t>
+  </si>
+  <si>
+    <t>access_date</t>
+  </si>
+  <si>
+    <t>album_id</t>
+  </si>
+  <si>
+    <t>content_id</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>再生日</t>
+  </si>
+  <si>
+    <t>レコードの最終更新日時。コンテンツが当日の最後に再生された日時</t>
+  </si>
+  <si>
+    <t>レコードの作成日時。コンテンツが当日のはじめて再生された日時</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>アルバムの説明</t>
+  </si>
+  <si>
+    <t>ARマーカー画像のURL</t>
+  </si>
+  <si>
+    <t>再生する動画のURL</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1295,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1343,6 +1361,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2358,7 +2381,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2371,12 +2394,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -2387,7 +2410,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>1</v>
@@ -2398,7 +2421,7 @@
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2414,12 +2437,12 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -2430,13 +2453,13 @@
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,7 +2495,7 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2487,7 +2510,7 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2515,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2548,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -2563,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2661,7 +2684,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>12</v>
@@ -2676,7 +2699,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2692,10 +2715,10 @@
         <v>18</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>19</v>
@@ -2704,7 +2727,7 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -2721,84 +2744,85 @@
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>20</v>
+        <v>194</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>198</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>33</v>
+      <c r="B18" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L18" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>31</v>
+      <c r="B19" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>19</v>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" t="s">
-        <v>57</v>
+      <c r="C21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>19</v>
@@ -2806,45 +2830,52 @@
       <c r="K22" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2852,7 +2883,7 @@
         <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="10" t="s">
@@ -2861,16 +2892,16 @@
       <c r="K27" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>51</v>
       </c>
       <c r="I28" s="17"/>
       <c r="J28" s="10" t="s">
@@ -2879,15 +2910,20 @@
       <c r="K28" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="L28" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="I29" s="17"/>
       <c r="J29" s="10" t="s">
         <v>19</v>
@@ -2895,22 +2931,44 @@
       <c r="K29" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="L29" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2947,31 +3005,31 @@
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2979,19 +3037,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="G4" s="5">
         <v>1</v>
@@ -3008,19 +3066,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -3037,19 +3095,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -3075,26 +3133,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9A5824-2BED-7F40-9D2E-2CC56F1C45B1}">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.83203125" style="14" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125"/>
-    <col min="9" max="9" width="54.5" customWidth="1"/>
+    <col min="9" max="9" width="64.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3108,104 +3168,148 @@
         <v>10</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>185</v>
+      </c>
+      <c r="C4" s="10">
+        <v>8</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>196</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="H4" s="10"/>
       <c r="I4" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="10"/>
+        <v>185</v>
+      </c>
+      <c r="C5" s="10">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="G5" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H5" s="10"/>
+      <c r="I5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C6" s="10">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H6" s="10"/>
+      <c r="I6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="G7" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="A7" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="29">
+        <v>10</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>210</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3241,18 +3345,18 @@
         <v>16</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E2" s="27" t="str">
         <f>"{"""&amp;A$1&amp;""":"""&amp;A2&amp;""","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;"""}"</f>
@@ -3261,13 +3365,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E3" s="27" t="str">
         <f t="shared" ref="E3:E50" si="0">"{"""&amp;A$1&amp;""":"""&amp;A3&amp;""","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"""&amp;C3&amp;"""}"</f>
@@ -3276,13 +3380,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E4" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3291,13 +3395,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E5" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3306,13 +3410,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E6" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3321,13 +3425,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E7" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3336,13 +3440,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>87</v>
-      </c>
       <c r="C8" s="26" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E8" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3351,13 +3455,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E9" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3366,13 +3470,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E10" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3381,13 +3485,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E11" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3396,13 +3500,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E12" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3411,13 +3515,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E13" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3426,13 +3530,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3441,13 +3545,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E15" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3456,13 +3560,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E16" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3471,13 +3575,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E17" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3486,13 +3590,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E18" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3501,13 +3605,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E19" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3516,13 +3620,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E20" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3531,13 +3635,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E21" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3546,13 +3650,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E22" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3561,13 +3665,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E23" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3576,13 +3680,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E24" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3591,13 +3695,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E25" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3606,13 +3710,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E26" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3621,13 +3725,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E27" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3636,13 +3740,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E28" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3651,13 +3755,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E29" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3666,13 +3770,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E30" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3681,13 +3785,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E31" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3696,13 +3800,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E32" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3711,13 +3815,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E33" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3726,13 +3830,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E34" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3741,13 +3845,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E35" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3756,13 +3860,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E36" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3771,13 +3875,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E37" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3786,13 +3890,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E38" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3801,13 +3905,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E39" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3816,13 +3920,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E40" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3831,13 +3935,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E41" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3846,13 +3950,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E42" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3861,13 +3965,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E43" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3876,13 +3980,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E44" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3891,13 +3995,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E45" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3906,13 +4010,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E46" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3921,13 +4025,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E47" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3936,13 +4040,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E48" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3951,13 +4055,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E49" s="27" t="str">
         <f t="shared" si="0"/>
@@ -3966,13 +4070,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E50" s="27" t="str">
         <f t="shared" si="0"/>
